--- a/Spreadsheets/atividadepontuada2.xlsx
+++ b/Spreadsheets/atividadepontuada2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>ACADEMIA FITNESS DO SEU BARRIGA &amp;&amp; MADRUGA</t>
   </si>
@@ -34,27 +34,51 @@
     <t>CLASSIFIC.</t>
   </si>
   <si>
+    <t>CLASSIFIC</t>
+  </si>
+  <si>
     <t>Filipa</t>
   </si>
   <si>
+    <t>Excesso de magreza</t>
+  </si>
+  <si>
     <t>Creuza</t>
   </si>
   <si>
+    <t>Abaixo do peso</t>
+  </si>
+  <si>
     <t>Astolfo</t>
   </si>
   <si>
+    <t>Peso Normal</t>
+  </si>
+  <si>
     <t>Juriscleiton</t>
   </si>
   <si>
+    <t>Excesso de Peso</t>
+  </si>
+  <si>
     <t>Azejarbé</t>
   </si>
   <si>
+    <t>Obesidade (Grau I)</t>
+  </si>
+  <si>
     <t>Edgnailton</t>
   </si>
   <si>
+    <t>Obesidade (Grau II)</t>
+  </si>
+  <si>
     <t>Alexssía</t>
   </si>
   <si>
+    <t>Obesidade (Grau III)</t>
+  </si>
+  <si>
     <t>Pedipano</t>
   </si>
   <si>
@@ -65,17 +89,25 @@
   </si>
   <si>
     <t>Maricleide</t>
+  </si>
+  <si>
+    <t>Função PROCV -&gt; "=VLOOKUP(D4;$G$3:$H$10;2)"</t>
+  </si>
+  <si>
+    <t>Caso for testar em um compilador diferente do spreedsheets, alterar VLOOKUP por PROCV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -102,8 +134,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,6 +157,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -125,128 +263,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,103 +299,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,84 +479,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -476,11 +514,115 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,36 +638,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,9 +659,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,168 +691,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,13 +857,70 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,7 +975,113 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF6565"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF00"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF6565"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1067,17 +1348,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G18" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.9" customWidth="1"/>
     <col min="2" max="2" width="11.2" customWidth="1"/>
-    <col min="5" max="5" width="10.8" customWidth="1"/>
+    <col min="4" max="4" width="8.8" customWidth="1"/>
+    <col min="5" max="5" width="18.6" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1089,7 +1372,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1105,111 +1388,363 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7">
+        <f>C4/B4^2</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f>VLOOKUP(D4,$G$3:$H$10,2)</f>
+        <v>Excesso de Peso</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1.73</v>
+      </c>
+      <c r="C5" s="9">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D14" si="0">C5/B5^2</f>
+        <v>24.3910588392529</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f t="shared" ref="E5:E14" si="1">VLOOKUP(D5,$G$3:$H$10,2)</f>
+        <v>Peso Normal</v>
+      </c>
+      <c r="G5" s="21">
+        <v>17</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>200</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>45.3514739229025</v>
+      </c>
+      <c r="E6" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Obesidade (Grau III)</v>
+      </c>
+      <c r="G6" s="19">
+        <v>18.5</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1.62</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>17.1467764060357</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Abaixo do peso</v>
+      </c>
+      <c r="G7" s="21">
+        <v>25</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="C8" s="6">
+        <v>50</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>15.4320987654321</v>
+      </c>
+      <c r="E8" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Excesso de magreza</v>
+      </c>
+      <c r="G8" s="19">
+        <v>30</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="C9" s="9">
+        <v>80</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>26.1224489795918</v>
+      </c>
+      <c r="E9" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Excesso de Peso</v>
+      </c>
+      <c r="G9" s="21">
+        <v>35</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>60</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>23.4375</v>
+      </c>
+      <c r="E10" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Peso Normal</v>
+      </c>
+      <c r="G10" s="19">
+        <v>40</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2.2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>150</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>30.9917355371901</v>
+      </c>
+      <c r="E11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Obesidade (Grau I)</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>150</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>88.7573964497041</v>
+      </c>
+      <c r="E12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Obesidade (Grau III)</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="C13" s="9">
+        <v>100</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>36.7309458218549</v>
+      </c>
+      <c r="E13" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Obesidade (Grau II)</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1.34</v>
+      </c>
+      <c r="C14" s="6">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>12.8090888839385</v>
+      </c>
+      <c r="E14" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Excesso de magreza</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" ht="40" customHeight="1" spans="1:6">
+      <c r="A18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
+  <conditionalFormatting sqref="D4:D14">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{41f1b262-9c10-4151-95f7-78bee3f566ef}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E14">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="between" text="Excesso de peso">
+      <formula>NOT(ISERROR(SEARCH("Excesso de peso",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="between" text="Peso Normal">
+      <formula>NOT(ISERROR(SEARCH("Peso Normal",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="between" text="Obesidade (Grau III)">
+      <formula>NOT(ISERROR(SEARCH("Obesidade (Grau III)",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="Obesidade (Grau I)">
+      <formula>NOT(ISERROR(SEARCH("Obesidade (Grau I)",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="between" text="Obesidade (Grau II)">
+      <formula>NOT(ISERROR(SEARCH("Obesidade (Grau II)",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="between" text="Excesso de magreza">
+      <formula>NOT(ISERROR(SEARCH("Excesso de magreza",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="1" operator="between" text="Abaixo do peso">
+      <formula>NOT(ISERROR(SEARCH("Abaixo do peso",E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{41f1b262-9c10-4151-95f7-78bee3f566ef}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D4:D14</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>